--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC62-ACUTEC 2.5-3.5-4.0 # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC62-ACUTEC 2.5-3.5-4.0 # 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF9AAA-B38C-4BCC-99B8-A370F2B66469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12990" yWindow="45" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -17,33 +18,22 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -732,13 +722,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1137,10 +1127,10 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1202,7 +1192,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1305,11 +1295,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1412,7 +1402,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,10 +1414,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1464,14 +1454,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Moneda 3 2" xfId="2"/>
-    <cellStyle name="Moneda 3 2 3" xfId="3"/>
-    <cellStyle name="Moneda 6" xfId="4"/>
-    <cellStyle name="Moneda 7" xfId="5"/>
+    <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda 7" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 3 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1621,7 +1611,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -1940,404 +1930,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="73.81640625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="10" customWidth="1"/>
-    <col min="8" max="252" width="11.453125" style="10"/>
-    <col min="253" max="253" width="13.1796875" style="10" customWidth="1"/>
-    <col min="254" max="254" width="15.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="10" customWidth="1"/>
+    <col min="8" max="252" width="11.42578125" style="10"/>
+    <col min="253" max="253" width="13.140625" style="10" customWidth="1"/>
+    <col min="254" max="254" width="15.140625" style="10" customWidth="1"/>
     <col min="255" max="255" width="42" style="10" customWidth="1"/>
-    <col min="256" max="256" width="11.453125" style="10"/>
-    <col min="257" max="257" width="13.1796875" style="10" customWidth="1"/>
-    <col min="258" max="508" width="11.453125" style="10"/>
-    <col min="509" max="509" width="13.1796875" style="10" customWidth="1"/>
-    <col min="510" max="510" width="15.1796875" style="10" customWidth="1"/>
+    <col min="256" max="256" width="11.42578125" style="10"/>
+    <col min="257" max="257" width="13.140625" style="10" customWidth="1"/>
+    <col min="258" max="508" width="11.42578125" style="10"/>
+    <col min="509" max="509" width="13.140625" style="10" customWidth="1"/>
+    <col min="510" max="510" width="15.140625" style="10" customWidth="1"/>
     <col min="511" max="511" width="42" style="10" customWidth="1"/>
-    <col min="512" max="512" width="11.453125" style="10"/>
-    <col min="513" max="513" width="13.1796875" style="10" customWidth="1"/>
-    <col min="514" max="764" width="11.453125" style="10"/>
-    <col min="765" max="765" width="13.1796875" style="10" customWidth="1"/>
-    <col min="766" max="766" width="15.1796875" style="10" customWidth="1"/>
+    <col min="512" max="512" width="11.42578125" style="10"/>
+    <col min="513" max="513" width="13.140625" style="10" customWidth="1"/>
+    <col min="514" max="764" width="11.42578125" style="10"/>
+    <col min="765" max="765" width="13.140625" style="10" customWidth="1"/>
+    <col min="766" max="766" width="15.140625" style="10" customWidth="1"/>
     <col min="767" max="767" width="42" style="10" customWidth="1"/>
-    <col min="768" max="768" width="11.453125" style="10"/>
-    <col min="769" max="769" width="13.1796875" style="10" customWidth="1"/>
-    <col min="770" max="1020" width="11.453125" style="10"/>
-    <col min="1021" max="1021" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1022" max="1022" width="15.1796875" style="10" customWidth="1"/>
+    <col min="768" max="768" width="11.42578125" style="10"/>
+    <col min="769" max="769" width="13.140625" style="10" customWidth="1"/>
+    <col min="770" max="1020" width="11.42578125" style="10"/>
+    <col min="1021" max="1021" width="13.140625" style="10" customWidth="1"/>
+    <col min="1022" max="1022" width="15.140625" style="10" customWidth="1"/>
     <col min="1023" max="1023" width="42" style="10" customWidth="1"/>
-    <col min="1024" max="1024" width="11.453125" style="10"/>
-    <col min="1025" max="1025" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1026" max="1276" width="11.453125" style="10"/>
-    <col min="1277" max="1277" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1278" max="1278" width="15.1796875" style="10" customWidth="1"/>
+    <col min="1024" max="1024" width="11.42578125" style="10"/>
+    <col min="1025" max="1025" width="13.140625" style="10" customWidth="1"/>
+    <col min="1026" max="1276" width="11.42578125" style="10"/>
+    <col min="1277" max="1277" width="13.140625" style="10" customWidth="1"/>
+    <col min="1278" max="1278" width="15.140625" style="10" customWidth="1"/>
     <col min="1279" max="1279" width="42" style="10" customWidth="1"/>
-    <col min="1280" max="1280" width="11.453125" style="10"/>
-    <col min="1281" max="1281" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1282" max="1532" width="11.453125" style="10"/>
-    <col min="1533" max="1533" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1534" max="1534" width="15.1796875" style="10" customWidth="1"/>
+    <col min="1280" max="1280" width="11.42578125" style="10"/>
+    <col min="1281" max="1281" width="13.140625" style="10" customWidth="1"/>
+    <col min="1282" max="1532" width="11.42578125" style="10"/>
+    <col min="1533" max="1533" width="13.140625" style="10" customWidth="1"/>
+    <col min="1534" max="1534" width="15.140625" style="10" customWidth="1"/>
     <col min="1535" max="1535" width="42" style="10" customWidth="1"/>
-    <col min="1536" max="1536" width="11.453125" style="10"/>
-    <col min="1537" max="1537" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1538" max="1788" width="11.453125" style="10"/>
-    <col min="1789" max="1789" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1790" max="1790" width="15.1796875" style="10" customWidth="1"/>
+    <col min="1536" max="1536" width="11.42578125" style="10"/>
+    <col min="1537" max="1537" width="13.140625" style="10" customWidth="1"/>
+    <col min="1538" max="1788" width="11.42578125" style="10"/>
+    <col min="1789" max="1789" width="13.140625" style="10" customWidth="1"/>
+    <col min="1790" max="1790" width="15.140625" style="10" customWidth="1"/>
     <col min="1791" max="1791" width="42" style="10" customWidth="1"/>
-    <col min="1792" max="1792" width="11.453125" style="10"/>
-    <col min="1793" max="1793" width="13.1796875" style="10" customWidth="1"/>
-    <col min="1794" max="2044" width="11.453125" style="10"/>
-    <col min="2045" max="2045" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2046" max="2046" width="15.1796875" style="10" customWidth="1"/>
+    <col min="1792" max="1792" width="11.42578125" style="10"/>
+    <col min="1793" max="1793" width="13.140625" style="10" customWidth="1"/>
+    <col min="1794" max="2044" width="11.42578125" style="10"/>
+    <col min="2045" max="2045" width="13.140625" style="10" customWidth="1"/>
+    <col min="2046" max="2046" width="15.140625" style="10" customWidth="1"/>
     <col min="2047" max="2047" width="42" style="10" customWidth="1"/>
-    <col min="2048" max="2048" width="11.453125" style="10"/>
-    <col min="2049" max="2049" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2050" max="2300" width="11.453125" style="10"/>
-    <col min="2301" max="2301" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2302" max="2302" width="15.1796875" style="10" customWidth="1"/>
+    <col min="2048" max="2048" width="11.42578125" style="10"/>
+    <col min="2049" max="2049" width="13.140625" style="10" customWidth="1"/>
+    <col min="2050" max="2300" width="11.42578125" style="10"/>
+    <col min="2301" max="2301" width="13.140625" style="10" customWidth="1"/>
+    <col min="2302" max="2302" width="15.140625" style="10" customWidth="1"/>
     <col min="2303" max="2303" width="42" style="10" customWidth="1"/>
-    <col min="2304" max="2304" width="11.453125" style="10"/>
-    <col min="2305" max="2305" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2306" max="2556" width="11.453125" style="10"/>
-    <col min="2557" max="2557" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2558" max="2558" width="15.1796875" style="10" customWidth="1"/>
+    <col min="2304" max="2304" width="11.42578125" style="10"/>
+    <col min="2305" max="2305" width="13.140625" style="10" customWidth="1"/>
+    <col min="2306" max="2556" width="11.42578125" style="10"/>
+    <col min="2557" max="2557" width="13.140625" style="10" customWidth="1"/>
+    <col min="2558" max="2558" width="15.140625" style="10" customWidth="1"/>
     <col min="2559" max="2559" width="42" style="10" customWidth="1"/>
-    <col min="2560" max="2560" width="11.453125" style="10"/>
-    <col min="2561" max="2561" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2562" max="2812" width="11.453125" style="10"/>
-    <col min="2813" max="2813" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2814" max="2814" width="15.1796875" style="10" customWidth="1"/>
+    <col min="2560" max="2560" width="11.42578125" style="10"/>
+    <col min="2561" max="2561" width="13.140625" style="10" customWidth="1"/>
+    <col min="2562" max="2812" width="11.42578125" style="10"/>
+    <col min="2813" max="2813" width="13.140625" style="10" customWidth="1"/>
+    <col min="2814" max="2814" width="15.140625" style="10" customWidth="1"/>
     <col min="2815" max="2815" width="42" style="10" customWidth="1"/>
-    <col min="2816" max="2816" width="11.453125" style="10"/>
-    <col min="2817" max="2817" width="13.1796875" style="10" customWidth="1"/>
-    <col min="2818" max="3068" width="11.453125" style="10"/>
-    <col min="3069" max="3069" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3070" max="3070" width="15.1796875" style="10" customWidth="1"/>
+    <col min="2816" max="2816" width="11.42578125" style="10"/>
+    <col min="2817" max="2817" width="13.140625" style="10" customWidth="1"/>
+    <col min="2818" max="3068" width="11.42578125" style="10"/>
+    <col min="3069" max="3069" width="13.140625" style="10" customWidth="1"/>
+    <col min="3070" max="3070" width="15.140625" style="10" customWidth="1"/>
     <col min="3071" max="3071" width="42" style="10" customWidth="1"/>
-    <col min="3072" max="3072" width="11.453125" style="10"/>
-    <col min="3073" max="3073" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3074" max="3324" width="11.453125" style="10"/>
-    <col min="3325" max="3325" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3326" max="3326" width="15.1796875" style="10" customWidth="1"/>
+    <col min="3072" max="3072" width="11.42578125" style="10"/>
+    <col min="3073" max="3073" width="13.140625" style="10" customWidth="1"/>
+    <col min="3074" max="3324" width="11.42578125" style="10"/>
+    <col min="3325" max="3325" width="13.140625" style="10" customWidth="1"/>
+    <col min="3326" max="3326" width="15.140625" style="10" customWidth="1"/>
     <col min="3327" max="3327" width="42" style="10" customWidth="1"/>
-    <col min="3328" max="3328" width="11.453125" style="10"/>
-    <col min="3329" max="3329" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3330" max="3580" width="11.453125" style="10"/>
-    <col min="3581" max="3581" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3582" max="3582" width="15.1796875" style="10" customWidth="1"/>
+    <col min="3328" max="3328" width="11.42578125" style="10"/>
+    <col min="3329" max="3329" width="13.140625" style="10" customWidth="1"/>
+    <col min="3330" max="3580" width="11.42578125" style="10"/>
+    <col min="3581" max="3581" width="13.140625" style="10" customWidth="1"/>
+    <col min="3582" max="3582" width="15.140625" style="10" customWidth="1"/>
     <col min="3583" max="3583" width="42" style="10" customWidth="1"/>
-    <col min="3584" max="3584" width="11.453125" style="10"/>
-    <col min="3585" max="3585" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3586" max="3836" width="11.453125" style="10"/>
-    <col min="3837" max="3837" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3838" max="3838" width="15.1796875" style="10" customWidth="1"/>
+    <col min="3584" max="3584" width="11.42578125" style="10"/>
+    <col min="3585" max="3585" width="13.140625" style="10" customWidth="1"/>
+    <col min="3586" max="3836" width="11.42578125" style="10"/>
+    <col min="3837" max="3837" width="13.140625" style="10" customWidth="1"/>
+    <col min="3838" max="3838" width="15.140625" style="10" customWidth="1"/>
     <col min="3839" max="3839" width="42" style="10" customWidth="1"/>
-    <col min="3840" max="3840" width="11.453125" style="10"/>
-    <col min="3841" max="3841" width="13.1796875" style="10" customWidth="1"/>
-    <col min="3842" max="4092" width="11.453125" style="10"/>
-    <col min="4093" max="4093" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4094" max="4094" width="15.1796875" style="10" customWidth="1"/>
+    <col min="3840" max="3840" width="11.42578125" style="10"/>
+    <col min="3841" max="3841" width="13.140625" style="10" customWidth="1"/>
+    <col min="3842" max="4092" width="11.42578125" style="10"/>
+    <col min="4093" max="4093" width="13.140625" style="10" customWidth="1"/>
+    <col min="4094" max="4094" width="15.140625" style="10" customWidth="1"/>
     <col min="4095" max="4095" width="42" style="10" customWidth="1"/>
-    <col min="4096" max="4096" width="11.453125" style="10"/>
-    <col min="4097" max="4097" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4098" max="4348" width="11.453125" style="10"/>
-    <col min="4349" max="4349" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4350" max="4350" width="15.1796875" style="10" customWidth="1"/>
+    <col min="4096" max="4096" width="11.42578125" style="10"/>
+    <col min="4097" max="4097" width="13.140625" style="10" customWidth="1"/>
+    <col min="4098" max="4348" width="11.42578125" style="10"/>
+    <col min="4349" max="4349" width="13.140625" style="10" customWidth="1"/>
+    <col min="4350" max="4350" width="15.140625" style="10" customWidth="1"/>
     <col min="4351" max="4351" width="42" style="10" customWidth="1"/>
-    <col min="4352" max="4352" width="11.453125" style="10"/>
-    <col min="4353" max="4353" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4354" max="4604" width="11.453125" style="10"/>
-    <col min="4605" max="4605" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4606" max="4606" width="15.1796875" style="10" customWidth="1"/>
+    <col min="4352" max="4352" width="11.42578125" style="10"/>
+    <col min="4353" max="4353" width="13.140625" style="10" customWidth="1"/>
+    <col min="4354" max="4604" width="11.42578125" style="10"/>
+    <col min="4605" max="4605" width="13.140625" style="10" customWidth="1"/>
+    <col min="4606" max="4606" width="15.140625" style="10" customWidth="1"/>
     <col min="4607" max="4607" width="42" style="10" customWidth="1"/>
-    <col min="4608" max="4608" width="11.453125" style="10"/>
-    <col min="4609" max="4609" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4610" max="4860" width="11.453125" style="10"/>
-    <col min="4861" max="4861" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4862" max="4862" width="15.1796875" style="10" customWidth="1"/>
+    <col min="4608" max="4608" width="11.42578125" style="10"/>
+    <col min="4609" max="4609" width="13.140625" style="10" customWidth="1"/>
+    <col min="4610" max="4860" width="11.42578125" style="10"/>
+    <col min="4861" max="4861" width="13.140625" style="10" customWidth="1"/>
+    <col min="4862" max="4862" width="15.140625" style="10" customWidth="1"/>
     <col min="4863" max="4863" width="42" style="10" customWidth="1"/>
-    <col min="4864" max="4864" width="11.453125" style="10"/>
-    <col min="4865" max="4865" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4866" max="5116" width="11.453125" style="10"/>
-    <col min="5117" max="5117" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5118" max="5118" width="15.1796875" style="10" customWidth="1"/>
+    <col min="4864" max="4864" width="11.42578125" style="10"/>
+    <col min="4865" max="4865" width="13.140625" style="10" customWidth="1"/>
+    <col min="4866" max="5116" width="11.42578125" style="10"/>
+    <col min="5117" max="5117" width="13.140625" style="10" customWidth="1"/>
+    <col min="5118" max="5118" width="15.140625" style="10" customWidth="1"/>
     <col min="5119" max="5119" width="42" style="10" customWidth="1"/>
-    <col min="5120" max="5120" width="11.453125" style="10"/>
-    <col min="5121" max="5121" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5122" max="5372" width="11.453125" style="10"/>
-    <col min="5373" max="5373" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5374" max="5374" width="15.1796875" style="10" customWidth="1"/>
+    <col min="5120" max="5120" width="11.42578125" style="10"/>
+    <col min="5121" max="5121" width="13.140625" style="10" customWidth="1"/>
+    <col min="5122" max="5372" width="11.42578125" style="10"/>
+    <col min="5373" max="5373" width="13.140625" style="10" customWidth="1"/>
+    <col min="5374" max="5374" width="15.140625" style="10" customWidth="1"/>
     <col min="5375" max="5375" width="42" style="10" customWidth="1"/>
-    <col min="5376" max="5376" width="11.453125" style="10"/>
-    <col min="5377" max="5377" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5378" max="5628" width="11.453125" style="10"/>
-    <col min="5629" max="5629" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5630" max="5630" width="15.1796875" style="10" customWidth="1"/>
+    <col min="5376" max="5376" width="11.42578125" style="10"/>
+    <col min="5377" max="5377" width="13.140625" style="10" customWidth="1"/>
+    <col min="5378" max="5628" width="11.42578125" style="10"/>
+    <col min="5629" max="5629" width="13.140625" style="10" customWidth="1"/>
+    <col min="5630" max="5630" width="15.140625" style="10" customWidth="1"/>
     <col min="5631" max="5631" width="42" style="10" customWidth="1"/>
-    <col min="5632" max="5632" width="11.453125" style="10"/>
-    <col min="5633" max="5633" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5634" max="5884" width="11.453125" style="10"/>
-    <col min="5885" max="5885" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5886" max="5886" width="15.1796875" style="10" customWidth="1"/>
+    <col min="5632" max="5632" width="11.42578125" style="10"/>
+    <col min="5633" max="5633" width="13.140625" style="10" customWidth="1"/>
+    <col min="5634" max="5884" width="11.42578125" style="10"/>
+    <col min="5885" max="5885" width="13.140625" style="10" customWidth="1"/>
+    <col min="5886" max="5886" width="15.140625" style="10" customWidth="1"/>
     <col min="5887" max="5887" width="42" style="10" customWidth="1"/>
-    <col min="5888" max="5888" width="11.453125" style="10"/>
-    <col min="5889" max="5889" width="13.1796875" style="10" customWidth="1"/>
-    <col min="5890" max="6140" width="11.453125" style="10"/>
-    <col min="6141" max="6141" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6142" max="6142" width="15.1796875" style="10" customWidth="1"/>
+    <col min="5888" max="5888" width="11.42578125" style="10"/>
+    <col min="5889" max="5889" width="13.140625" style="10" customWidth="1"/>
+    <col min="5890" max="6140" width="11.42578125" style="10"/>
+    <col min="6141" max="6141" width="13.140625" style="10" customWidth="1"/>
+    <col min="6142" max="6142" width="15.140625" style="10" customWidth="1"/>
     <col min="6143" max="6143" width="42" style="10" customWidth="1"/>
-    <col min="6144" max="6144" width="11.453125" style="10"/>
-    <col min="6145" max="6145" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6146" max="6396" width="11.453125" style="10"/>
-    <col min="6397" max="6397" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6398" max="6398" width="15.1796875" style="10" customWidth="1"/>
+    <col min="6144" max="6144" width="11.42578125" style="10"/>
+    <col min="6145" max="6145" width="13.140625" style="10" customWidth="1"/>
+    <col min="6146" max="6396" width="11.42578125" style="10"/>
+    <col min="6397" max="6397" width="13.140625" style="10" customWidth="1"/>
+    <col min="6398" max="6398" width="15.140625" style="10" customWidth="1"/>
     <col min="6399" max="6399" width="42" style="10" customWidth="1"/>
-    <col min="6400" max="6400" width="11.453125" style="10"/>
-    <col min="6401" max="6401" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6402" max="6652" width="11.453125" style="10"/>
-    <col min="6653" max="6653" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6654" max="6654" width="15.1796875" style="10" customWidth="1"/>
+    <col min="6400" max="6400" width="11.42578125" style="10"/>
+    <col min="6401" max="6401" width="13.140625" style="10" customWidth="1"/>
+    <col min="6402" max="6652" width="11.42578125" style="10"/>
+    <col min="6653" max="6653" width="13.140625" style="10" customWidth="1"/>
+    <col min="6654" max="6654" width="15.140625" style="10" customWidth="1"/>
     <col min="6655" max="6655" width="42" style="10" customWidth="1"/>
-    <col min="6656" max="6656" width="11.453125" style="10"/>
-    <col min="6657" max="6657" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6658" max="6908" width="11.453125" style="10"/>
-    <col min="6909" max="6909" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6910" max="6910" width="15.1796875" style="10" customWidth="1"/>
+    <col min="6656" max="6656" width="11.42578125" style="10"/>
+    <col min="6657" max="6657" width="13.140625" style="10" customWidth="1"/>
+    <col min="6658" max="6908" width="11.42578125" style="10"/>
+    <col min="6909" max="6909" width="13.140625" style="10" customWidth="1"/>
+    <col min="6910" max="6910" width="15.140625" style="10" customWidth="1"/>
     <col min="6911" max="6911" width="42" style="10" customWidth="1"/>
-    <col min="6912" max="6912" width="11.453125" style="10"/>
-    <col min="6913" max="6913" width="13.1796875" style="10" customWidth="1"/>
-    <col min="6914" max="7164" width="11.453125" style="10"/>
-    <col min="7165" max="7165" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7166" max="7166" width="15.1796875" style="10" customWidth="1"/>
+    <col min="6912" max="6912" width="11.42578125" style="10"/>
+    <col min="6913" max="6913" width="13.140625" style="10" customWidth="1"/>
+    <col min="6914" max="7164" width="11.42578125" style="10"/>
+    <col min="7165" max="7165" width="13.140625" style="10" customWidth="1"/>
+    <col min="7166" max="7166" width="15.140625" style="10" customWidth="1"/>
     <col min="7167" max="7167" width="42" style="10" customWidth="1"/>
-    <col min="7168" max="7168" width="11.453125" style="10"/>
-    <col min="7169" max="7169" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7170" max="7420" width="11.453125" style="10"/>
-    <col min="7421" max="7421" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7422" max="7422" width="15.1796875" style="10" customWidth="1"/>
+    <col min="7168" max="7168" width="11.42578125" style="10"/>
+    <col min="7169" max="7169" width="13.140625" style="10" customWidth="1"/>
+    <col min="7170" max="7420" width="11.42578125" style="10"/>
+    <col min="7421" max="7421" width="13.140625" style="10" customWidth="1"/>
+    <col min="7422" max="7422" width="15.140625" style="10" customWidth="1"/>
     <col min="7423" max="7423" width="42" style="10" customWidth="1"/>
-    <col min="7424" max="7424" width="11.453125" style="10"/>
-    <col min="7425" max="7425" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7426" max="7676" width="11.453125" style="10"/>
-    <col min="7677" max="7677" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7678" max="7678" width="15.1796875" style="10" customWidth="1"/>
+    <col min="7424" max="7424" width="11.42578125" style="10"/>
+    <col min="7425" max="7425" width="13.140625" style="10" customWidth="1"/>
+    <col min="7426" max="7676" width="11.42578125" style="10"/>
+    <col min="7677" max="7677" width="13.140625" style="10" customWidth="1"/>
+    <col min="7678" max="7678" width="15.140625" style="10" customWidth="1"/>
     <col min="7679" max="7679" width="42" style="10" customWidth="1"/>
-    <col min="7680" max="7680" width="11.453125" style="10"/>
-    <col min="7681" max="7681" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7682" max="7932" width="11.453125" style="10"/>
-    <col min="7933" max="7933" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7934" max="7934" width="15.1796875" style="10" customWidth="1"/>
+    <col min="7680" max="7680" width="11.42578125" style="10"/>
+    <col min="7681" max="7681" width="13.140625" style="10" customWidth="1"/>
+    <col min="7682" max="7932" width="11.42578125" style="10"/>
+    <col min="7933" max="7933" width="13.140625" style="10" customWidth="1"/>
+    <col min="7934" max="7934" width="15.140625" style="10" customWidth="1"/>
     <col min="7935" max="7935" width="42" style="10" customWidth="1"/>
-    <col min="7936" max="7936" width="11.453125" style="10"/>
-    <col min="7937" max="7937" width="13.1796875" style="10" customWidth="1"/>
-    <col min="7938" max="8188" width="11.453125" style="10"/>
-    <col min="8189" max="8189" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8190" max="8190" width="15.1796875" style="10" customWidth="1"/>
+    <col min="7936" max="7936" width="11.42578125" style="10"/>
+    <col min="7937" max="7937" width="13.140625" style="10" customWidth="1"/>
+    <col min="7938" max="8188" width="11.42578125" style="10"/>
+    <col min="8189" max="8189" width="13.140625" style="10" customWidth="1"/>
+    <col min="8190" max="8190" width="15.140625" style="10" customWidth="1"/>
     <col min="8191" max="8191" width="42" style="10" customWidth="1"/>
-    <col min="8192" max="8192" width="11.453125" style="10"/>
-    <col min="8193" max="8193" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8194" max="8444" width="11.453125" style="10"/>
-    <col min="8445" max="8445" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8446" max="8446" width="15.1796875" style="10" customWidth="1"/>
+    <col min="8192" max="8192" width="11.42578125" style="10"/>
+    <col min="8193" max="8193" width="13.140625" style="10" customWidth="1"/>
+    <col min="8194" max="8444" width="11.42578125" style="10"/>
+    <col min="8445" max="8445" width="13.140625" style="10" customWidth="1"/>
+    <col min="8446" max="8446" width="15.140625" style="10" customWidth="1"/>
     <col min="8447" max="8447" width="42" style="10" customWidth="1"/>
-    <col min="8448" max="8448" width="11.453125" style="10"/>
-    <col min="8449" max="8449" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8450" max="8700" width="11.453125" style="10"/>
-    <col min="8701" max="8701" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8702" max="8702" width="15.1796875" style="10" customWidth="1"/>
+    <col min="8448" max="8448" width="11.42578125" style="10"/>
+    <col min="8449" max="8449" width="13.140625" style="10" customWidth="1"/>
+    <col min="8450" max="8700" width="11.42578125" style="10"/>
+    <col min="8701" max="8701" width="13.140625" style="10" customWidth="1"/>
+    <col min="8702" max="8702" width="15.140625" style="10" customWidth="1"/>
     <col min="8703" max="8703" width="42" style="10" customWidth="1"/>
-    <col min="8704" max="8704" width="11.453125" style="10"/>
-    <col min="8705" max="8705" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8706" max="8956" width="11.453125" style="10"/>
-    <col min="8957" max="8957" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8958" max="8958" width="15.1796875" style="10" customWidth="1"/>
+    <col min="8704" max="8704" width="11.42578125" style="10"/>
+    <col min="8705" max="8705" width="13.140625" style="10" customWidth="1"/>
+    <col min="8706" max="8956" width="11.42578125" style="10"/>
+    <col min="8957" max="8957" width="13.140625" style="10" customWidth="1"/>
+    <col min="8958" max="8958" width="15.140625" style="10" customWidth="1"/>
     <col min="8959" max="8959" width="42" style="10" customWidth="1"/>
-    <col min="8960" max="8960" width="11.453125" style="10"/>
-    <col min="8961" max="8961" width="13.1796875" style="10" customWidth="1"/>
-    <col min="8962" max="9212" width="11.453125" style="10"/>
-    <col min="9213" max="9213" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9214" max="9214" width="15.1796875" style="10" customWidth="1"/>
+    <col min="8960" max="8960" width="11.42578125" style="10"/>
+    <col min="8961" max="8961" width="13.140625" style="10" customWidth="1"/>
+    <col min="8962" max="9212" width="11.42578125" style="10"/>
+    <col min="9213" max="9213" width="13.140625" style="10" customWidth="1"/>
+    <col min="9214" max="9214" width="15.140625" style="10" customWidth="1"/>
     <col min="9215" max="9215" width="42" style="10" customWidth="1"/>
-    <col min="9216" max="9216" width="11.453125" style="10"/>
-    <col min="9217" max="9217" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9218" max="9468" width="11.453125" style="10"/>
-    <col min="9469" max="9469" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9470" max="9470" width="15.1796875" style="10" customWidth="1"/>
+    <col min="9216" max="9216" width="11.42578125" style="10"/>
+    <col min="9217" max="9217" width="13.140625" style="10" customWidth="1"/>
+    <col min="9218" max="9468" width="11.42578125" style="10"/>
+    <col min="9469" max="9469" width="13.140625" style="10" customWidth="1"/>
+    <col min="9470" max="9470" width="15.140625" style="10" customWidth="1"/>
     <col min="9471" max="9471" width="42" style="10" customWidth="1"/>
-    <col min="9472" max="9472" width="11.453125" style="10"/>
-    <col min="9473" max="9473" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9474" max="9724" width="11.453125" style="10"/>
-    <col min="9725" max="9725" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9726" max="9726" width="15.1796875" style="10" customWidth="1"/>
+    <col min="9472" max="9472" width="11.42578125" style="10"/>
+    <col min="9473" max="9473" width="13.140625" style="10" customWidth="1"/>
+    <col min="9474" max="9724" width="11.42578125" style="10"/>
+    <col min="9725" max="9725" width="13.140625" style="10" customWidth="1"/>
+    <col min="9726" max="9726" width="15.140625" style="10" customWidth="1"/>
     <col min="9727" max="9727" width="42" style="10" customWidth="1"/>
-    <col min="9728" max="9728" width="11.453125" style="10"/>
-    <col min="9729" max="9729" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9730" max="9980" width="11.453125" style="10"/>
-    <col min="9981" max="9981" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9982" max="9982" width="15.1796875" style="10" customWidth="1"/>
+    <col min="9728" max="9728" width="11.42578125" style="10"/>
+    <col min="9729" max="9729" width="13.140625" style="10" customWidth="1"/>
+    <col min="9730" max="9980" width="11.42578125" style="10"/>
+    <col min="9981" max="9981" width="13.140625" style="10" customWidth="1"/>
+    <col min="9982" max="9982" width="15.140625" style="10" customWidth="1"/>
     <col min="9983" max="9983" width="42" style="10" customWidth="1"/>
-    <col min="9984" max="9984" width="11.453125" style="10"/>
-    <col min="9985" max="9985" width="13.1796875" style="10" customWidth="1"/>
-    <col min="9986" max="10236" width="11.453125" style="10"/>
-    <col min="10237" max="10237" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10238" max="10238" width="15.1796875" style="10" customWidth="1"/>
+    <col min="9984" max="9984" width="11.42578125" style="10"/>
+    <col min="9985" max="9985" width="13.140625" style="10" customWidth="1"/>
+    <col min="9986" max="10236" width="11.42578125" style="10"/>
+    <col min="10237" max="10237" width="13.140625" style="10" customWidth="1"/>
+    <col min="10238" max="10238" width="15.140625" style="10" customWidth="1"/>
     <col min="10239" max="10239" width="42" style="10" customWidth="1"/>
-    <col min="10240" max="10240" width="11.453125" style="10"/>
-    <col min="10241" max="10241" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10242" max="10492" width="11.453125" style="10"/>
-    <col min="10493" max="10493" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10494" max="10494" width="15.1796875" style="10" customWidth="1"/>
+    <col min="10240" max="10240" width="11.42578125" style="10"/>
+    <col min="10241" max="10241" width="13.140625" style="10" customWidth="1"/>
+    <col min="10242" max="10492" width="11.42578125" style="10"/>
+    <col min="10493" max="10493" width="13.140625" style="10" customWidth="1"/>
+    <col min="10494" max="10494" width="15.140625" style="10" customWidth="1"/>
     <col min="10495" max="10495" width="42" style="10" customWidth="1"/>
-    <col min="10496" max="10496" width="11.453125" style="10"/>
-    <col min="10497" max="10497" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10498" max="10748" width="11.453125" style="10"/>
-    <col min="10749" max="10749" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10750" max="10750" width="15.1796875" style="10" customWidth="1"/>
+    <col min="10496" max="10496" width="11.42578125" style="10"/>
+    <col min="10497" max="10497" width="13.140625" style="10" customWidth="1"/>
+    <col min="10498" max="10748" width="11.42578125" style="10"/>
+    <col min="10749" max="10749" width="13.140625" style="10" customWidth="1"/>
+    <col min="10750" max="10750" width="15.140625" style="10" customWidth="1"/>
     <col min="10751" max="10751" width="42" style="10" customWidth="1"/>
-    <col min="10752" max="10752" width="11.453125" style="10"/>
-    <col min="10753" max="10753" width="13.1796875" style="10" customWidth="1"/>
-    <col min="10754" max="11004" width="11.453125" style="10"/>
-    <col min="11005" max="11005" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11006" max="11006" width="15.1796875" style="10" customWidth="1"/>
+    <col min="10752" max="10752" width="11.42578125" style="10"/>
+    <col min="10753" max="10753" width="13.140625" style="10" customWidth="1"/>
+    <col min="10754" max="11004" width="11.42578125" style="10"/>
+    <col min="11005" max="11005" width="13.140625" style="10" customWidth="1"/>
+    <col min="11006" max="11006" width="15.140625" style="10" customWidth="1"/>
     <col min="11007" max="11007" width="42" style="10" customWidth="1"/>
-    <col min="11008" max="11008" width="11.453125" style="10"/>
-    <col min="11009" max="11009" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11010" max="11260" width="11.453125" style="10"/>
-    <col min="11261" max="11261" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11262" max="11262" width="15.1796875" style="10" customWidth="1"/>
+    <col min="11008" max="11008" width="11.42578125" style="10"/>
+    <col min="11009" max="11009" width="13.140625" style="10" customWidth="1"/>
+    <col min="11010" max="11260" width="11.42578125" style="10"/>
+    <col min="11261" max="11261" width="13.140625" style="10" customWidth="1"/>
+    <col min="11262" max="11262" width="15.140625" style="10" customWidth="1"/>
     <col min="11263" max="11263" width="42" style="10" customWidth="1"/>
-    <col min="11264" max="11264" width="11.453125" style="10"/>
-    <col min="11265" max="11265" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11266" max="11516" width="11.453125" style="10"/>
-    <col min="11517" max="11517" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11518" max="11518" width="15.1796875" style="10" customWidth="1"/>
+    <col min="11264" max="11264" width="11.42578125" style="10"/>
+    <col min="11265" max="11265" width="13.140625" style="10" customWidth="1"/>
+    <col min="11266" max="11516" width="11.42578125" style="10"/>
+    <col min="11517" max="11517" width="13.140625" style="10" customWidth="1"/>
+    <col min="11518" max="11518" width="15.140625" style="10" customWidth="1"/>
     <col min="11519" max="11519" width="42" style="10" customWidth="1"/>
-    <col min="11520" max="11520" width="11.453125" style="10"/>
-    <col min="11521" max="11521" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11522" max="11772" width="11.453125" style="10"/>
-    <col min="11773" max="11773" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11774" max="11774" width="15.1796875" style="10" customWidth="1"/>
+    <col min="11520" max="11520" width="11.42578125" style="10"/>
+    <col min="11521" max="11521" width="13.140625" style="10" customWidth="1"/>
+    <col min="11522" max="11772" width="11.42578125" style="10"/>
+    <col min="11773" max="11773" width="13.140625" style="10" customWidth="1"/>
+    <col min="11774" max="11774" width="15.140625" style="10" customWidth="1"/>
     <col min="11775" max="11775" width="42" style="10" customWidth="1"/>
-    <col min="11776" max="11776" width="11.453125" style="10"/>
-    <col min="11777" max="11777" width="13.1796875" style="10" customWidth="1"/>
-    <col min="11778" max="12028" width="11.453125" style="10"/>
-    <col min="12029" max="12029" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12030" max="12030" width="15.1796875" style="10" customWidth="1"/>
+    <col min="11776" max="11776" width="11.42578125" style="10"/>
+    <col min="11777" max="11777" width="13.140625" style="10" customWidth="1"/>
+    <col min="11778" max="12028" width="11.42578125" style="10"/>
+    <col min="12029" max="12029" width="13.140625" style="10" customWidth="1"/>
+    <col min="12030" max="12030" width="15.140625" style="10" customWidth="1"/>
     <col min="12031" max="12031" width="42" style="10" customWidth="1"/>
-    <col min="12032" max="12032" width="11.453125" style="10"/>
-    <col min="12033" max="12033" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12034" max="12284" width="11.453125" style="10"/>
-    <col min="12285" max="12285" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12286" max="12286" width="15.1796875" style="10" customWidth="1"/>
+    <col min="12032" max="12032" width="11.42578125" style="10"/>
+    <col min="12033" max="12033" width="13.140625" style="10" customWidth="1"/>
+    <col min="12034" max="12284" width="11.42578125" style="10"/>
+    <col min="12285" max="12285" width="13.140625" style="10" customWidth="1"/>
+    <col min="12286" max="12286" width="15.140625" style="10" customWidth="1"/>
     <col min="12287" max="12287" width="42" style="10" customWidth="1"/>
-    <col min="12288" max="12288" width="11.453125" style="10"/>
-    <col min="12289" max="12289" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12290" max="12540" width="11.453125" style="10"/>
-    <col min="12541" max="12541" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12542" max="12542" width="15.1796875" style="10" customWidth="1"/>
+    <col min="12288" max="12288" width="11.42578125" style="10"/>
+    <col min="12289" max="12289" width="13.140625" style="10" customWidth="1"/>
+    <col min="12290" max="12540" width="11.42578125" style="10"/>
+    <col min="12541" max="12541" width="13.140625" style="10" customWidth="1"/>
+    <col min="12542" max="12542" width="15.140625" style="10" customWidth="1"/>
     <col min="12543" max="12543" width="42" style="10" customWidth="1"/>
-    <col min="12544" max="12544" width="11.453125" style="10"/>
-    <col min="12545" max="12545" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12546" max="12796" width="11.453125" style="10"/>
-    <col min="12797" max="12797" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12798" max="12798" width="15.1796875" style="10" customWidth="1"/>
+    <col min="12544" max="12544" width="11.42578125" style="10"/>
+    <col min="12545" max="12545" width="13.140625" style="10" customWidth="1"/>
+    <col min="12546" max="12796" width="11.42578125" style="10"/>
+    <col min="12797" max="12797" width="13.140625" style="10" customWidth="1"/>
+    <col min="12798" max="12798" width="15.140625" style="10" customWidth="1"/>
     <col min="12799" max="12799" width="42" style="10" customWidth="1"/>
-    <col min="12800" max="12800" width="11.453125" style="10"/>
-    <col min="12801" max="12801" width="13.1796875" style="10" customWidth="1"/>
-    <col min="12802" max="13052" width="11.453125" style="10"/>
-    <col min="13053" max="13053" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13054" max="13054" width="15.1796875" style="10" customWidth="1"/>
+    <col min="12800" max="12800" width="11.42578125" style="10"/>
+    <col min="12801" max="12801" width="13.140625" style="10" customWidth="1"/>
+    <col min="12802" max="13052" width="11.42578125" style="10"/>
+    <col min="13053" max="13053" width="13.140625" style="10" customWidth="1"/>
+    <col min="13054" max="13054" width="15.140625" style="10" customWidth="1"/>
     <col min="13055" max="13055" width="42" style="10" customWidth="1"/>
-    <col min="13056" max="13056" width="11.453125" style="10"/>
-    <col min="13057" max="13057" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13058" max="13308" width="11.453125" style="10"/>
-    <col min="13309" max="13309" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13310" max="13310" width="15.1796875" style="10" customWidth="1"/>
+    <col min="13056" max="13056" width="11.42578125" style="10"/>
+    <col min="13057" max="13057" width="13.140625" style="10" customWidth="1"/>
+    <col min="13058" max="13308" width="11.42578125" style="10"/>
+    <col min="13309" max="13309" width="13.140625" style="10" customWidth="1"/>
+    <col min="13310" max="13310" width="15.140625" style="10" customWidth="1"/>
     <col min="13311" max="13311" width="42" style="10" customWidth="1"/>
-    <col min="13312" max="13312" width="11.453125" style="10"/>
-    <col min="13313" max="13313" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13314" max="13564" width="11.453125" style="10"/>
-    <col min="13565" max="13565" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13566" max="13566" width="15.1796875" style="10" customWidth="1"/>
+    <col min="13312" max="13312" width="11.42578125" style="10"/>
+    <col min="13313" max="13313" width="13.140625" style="10" customWidth="1"/>
+    <col min="13314" max="13564" width="11.42578125" style="10"/>
+    <col min="13565" max="13565" width="13.140625" style="10" customWidth="1"/>
+    <col min="13566" max="13566" width="15.140625" style="10" customWidth="1"/>
     <col min="13567" max="13567" width="42" style="10" customWidth="1"/>
-    <col min="13568" max="13568" width="11.453125" style="10"/>
-    <col min="13569" max="13569" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13570" max="13820" width="11.453125" style="10"/>
-    <col min="13821" max="13821" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13822" max="13822" width="15.1796875" style="10" customWidth="1"/>
+    <col min="13568" max="13568" width="11.42578125" style="10"/>
+    <col min="13569" max="13569" width="13.140625" style="10" customWidth="1"/>
+    <col min="13570" max="13820" width="11.42578125" style="10"/>
+    <col min="13821" max="13821" width="13.140625" style="10" customWidth="1"/>
+    <col min="13822" max="13822" width="15.140625" style="10" customWidth="1"/>
     <col min="13823" max="13823" width="42" style="10" customWidth="1"/>
-    <col min="13824" max="13824" width="11.453125" style="10"/>
-    <col min="13825" max="13825" width="13.1796875" style="10" customWidth="1"/>
-    <col min="13826" max="14076" width="11.453125" style="10"/>
-    <col min="14077" max="14077" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14078" max="14078" width="15.1796875" style="10" customWidth="1"/>
+    <col min="13824" max="13824" width="11.42578125" style="10"/>
+    <col min="13825" max="13825" width="13.140625" style="10" customWidth="1"/>
+    <col min="13826" max="14076" width="11.42578125" style="10"/>
+    <col min="14077" max="14077" width="13.140625" style="10" customWidth="1"/>
+    <col min="14078" max="14078" width="15.140625" style="10" customWidth="1"/>
     <col min="14079" max="14079" width="42" style="10" customWidth="1"/>
-    <col min="14080" max="14080" width="11.453125" style="10"/>
-    <col min="14081" max="14081" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14082" max="14332" width="11.453125" style="10"/>
-    <col min="14333" max="14333" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14334" max="14334" width="15.1796875" style="10" customWidth="1"/>
+    <col min="14080" max="14080" width="11.42578125" style="10"/>
+    <col min="14081" max="14081" width="13.140625" style="10" customWidth="1"/>
+    <col min="14082" max="14332" width="11.42578125" style="10"/>
+    <col min="14333" max="14333" width="13.140625" style="10" customWidth="1"/>
+    <col min="14334" max="14334" width="15.140625" style="10" customWidth="1"/>
     <col min="14335" max="14335" width="42" style="10" customWidth="1"/>
-    <col min="14336" max="14336" width="11.453125" style="10"/>
-    <col min="14337" max="14337" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14338" max="14588" width="11.453125" style="10"/>
-    <col min="14589" max="14589" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14590" max="14590" width="15.1796875" style="10" customWidth="1"/>
+    <col min="14336" max="14336" width="11.42578125" style="10"/>
+    <col min="14337" max="14337" width="13.140625" style="10" customWidth="1"/>
+    <col min="14338" max="14588" width="11.42578125" style="10"/>
+    <col min="14589" max="14589" width="13.140625" style="10" customWidth="1"/>
+    <col min="14590" max="14590" width="15.140625" style="10" customWidth="1"/>
     <col min="14591" max="14591" width="42" style="10" customWidth="1"/>
-    <col min="14592" max="14592" width="11.453125" style="10"/>
-    <col min="14593" max="14593" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14594" max="14844" width="11.453125" style="10"/>
-    <col min="14845" max="14845" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14846" max="14846" width="15.1796875" style="10" customWidth="1"/>
+    <col min="14592" max="14592" width="11.42578125" style="10"/>
+    <col min="14593" max="14593" width="13.140625" style="10" customWidth="1"/>
+    <col min="14594" max="14844" width="11.42578125" style="10"/>
+    <col min="14845" max="14845" width="13.140625" style="10" customWidth="1"/>
+    <col min="14846" max="14846" width="15.140625" style="10" customWidth="1"/>
     <col min="14847" max="14847" width="42" style="10" customWidth="1"/>
-    <col min="14848" max="14848" width="11.453125" style="10"/>
-    <col min="14849" max="14849" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14850" max="15100" width="11.453125" style="10"/>
-    <col min="15101" max="15101" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15102" max="15102" width="15.1796875" style="10" customWidth="1"/>
+    <col min="14848" max="14848" width="11.42578125" style="10"/>
+    <col min="14849" max="14849" width="13.140625" style="10" customWidth="1"/>
+    <col min="14850" max="15100" width="11.42578125" style="10"/>
+    <col min="15101" max="15101" width="13.140625" style="10" customWidth="1"/>
+    <col min="15102" max="15102" width="15.140625" style="10" customWidth="1"/>
     <col min="15103" max="15103" width="42" style="10" customWidth="1"/>
-    <col min="15104" max="15104" width="11.453125" style="10"/>
-    <col min="15105" max="15105" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15106" max="15356" width="11.453125" style="10"/>
-    <col min="15357" max="15357" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15358" max="15358" width="15.1796875" style="10" customWidth="1"/>
+    <col min="15104" max="15104" width="11.42578125" style="10"/>
+    <col min="15105" max="15105" width="13.140625" style="10" customWidth="1"/>
+    <col min="15106" max="15356" width="11.42578125" style="10"/>
+    <col min="15357" max="15357" width="13.140625" style="10" customWidth="1"/>
+    <col min="15358" max="15358" width="15.140625" style="10" customWidth="1"/>
     <col min="15359" max="15359" width="42" style="10" customWidth="1"/>
-    <col min="15360" max="15360" width="11.453125" style="10"/>
-    <col min="15361" max="15361" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15362" max="15612" width="11.453125" style="10"/>
-    <col min="15613" max="15613" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15614" max="15614" width="15.1796875" style="10" customWidth="1"/>
+    <col min="15360" max="15360" width="11.42578125" style="10"/>
+    <col min="15361" max="15361" width="13.140625" style="10" customWidth="1"/>
+    <col min="15362" max="15612" width="11.42578125" style="10"/>
+    <col min="15613" max="15613" width="13.140625" style="10" customWidth="1"/>
+    <col min="15614" max="15614" width="15.140625" style="10" customWidth="1"/>
     <col min="15615" max="15615" width="42" style="10" customWidth="1"/>
-    <col min="15616" max="15616" width="11.453125" style="10"/>
-    <col min="15617" max="15617" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15618" max="15868" width="11.453125" style="10"/>
-    <col min="15869" max="15869" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15870" max="15870" width="15.1796875" style="10" customWidth="1"/>
+    <col min="15616" max="15616" width="11.42578125" style="10"/>
+    <col min="15617" max="15617" width="13.140625" style="10" customWidth="1"/>
+    <col min="15618" max="15868" width="11.42578125" style="10"/>
+    <col min="15869" max="15869" width="13.140625" style="10" customWidth="1"/>
+    <col min="15870" max="15870" width="15.140625" style="10" customWidth="1"/>
     <col min="15871" max="15871" width="42" style="10" customWidth="1"/>
-    <col min="15872" max="15872" width="11.453125" style="10"/>
-    <col min="15873" max="15873" width="13.1796875" style="10" customWidth="1"/>
-    <col min="15874" max="16124" width="11.453125" style="10"/>
-    <col min="16125" max="16125" width="13.1796875" style="10" customWidth="1"/>
-    <col min="16126" max="16126" width="15.1796875" style="10" customWidth="1"/>
+    <col min="15872" max="15872" width="11.42578125" style="10"/>
+    <col min="15873" max="15873" width="13.140625" style="10" customWidth="1"/>
+    <col min="15874" max="16124" width="11.42578125" style="10"/>
+    <col min="16125" max="16125" width="13.140625" style="10" customWidth="1"/>
+    <col min="16126" max="16126" width="15.140625" style="10" customWidth="1"/>
     <col min="16127" max="16127" width="42" style="10" customWidth="1"/>
-    <col min="16128" max="16128" width="11.453125" style="10"/>
-    <col min="16129" max="16129" width="13.1796875" style="10" customWidth="1"/>
-    <col min="16130" max="16384" width="11.453125" style="10"/>
+    <col min="16128" max="16128" width="11.42578125" style="10"/>
+    <col min="16129" max="16129" width="13.140625" style="10" customWidth="1"/>
+    <col min="16130" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="95" t="s">
@@ -2350,7 +2340,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="95"/>
@@ -2390,14 +2380,14 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>58</v>
       </c>
@@ -2419,7 +2409,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>60</v>
       </c>
@@ -2437,7 +2427,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="99" t="s">
         <v>150</v>
       </c>
@@ -2457,7 +2447,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>62</v>
       </c>
@@ -2477,7 +2467,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>64</v>
       </c>
@@ -2497,7 +2487,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2513,7 +2503,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
@@ -2531,7 +2521,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>154</v>
       </c>
@@ -2571,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="85" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="85" t="s">
         <v>4</v>
       </c>
@@ -2613,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="85" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="85" t="s">
         <v>6</v>
       </c>
@@ -2655,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="85" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="85" t="s">
         <v>9</v>
       </c>
@@ -2739,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="85" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="85" t="s">
         <v>11</v>
       </c>
@@ -2781,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="85" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="85" t="s">
         <v>13</v>
       </c>
@@ -2826,7 +2816,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="85" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="85" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2861,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="85" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="85" t="s">
         <v>15</v>
       </c>
@@ -2919,7 +2909,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="85" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="85" t="s">
         <v>53</v>
       </c>
@@ -2961,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>53</v>
       </c>
@@ -2982,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="85" t="s">
         <v>190</v>
       </c>
@@ -2995,7 +2985,7 @@
       <c r="F43" s="88"/>
       <c r="G43" s="88"/>
     </row>
-    <row r="44" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="85" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="85" t="s">
         <v>18</v>
       </c>
@@ -3037,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="85" t="s">
         <v>19</v>
       </c>
@@ -3058,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="85" t="s">
         <v>20</v>
       </c>
@@ -3079,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="85" t="s">
         <v>21</v>
       </c>
@@ -3100,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="85" t="s">
         <v>22</v>
       </c>
@@ -3124,7 +3114,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="85" t="s">
         <v>23</v>
       </c>
@@ -3148,7 +3138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="85" t="s">
         <v>24</v>
       </c>
@@ -3169,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="85" t="s">
         <v>25</v>
       </c>
@@ -3190,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="85" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85" t="s">
         <v>27</v>
       </c>
@@ -3230,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="85" t="s">
         <v>70</v>
       </c>
@@ -3249,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="85" t="s">
         <v>54</v>
       </c>
@@ -3268,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="85" t="s">
         <v>190</v>
       </c>
@@ -3281,7 +3271,7 @@
       <c r="F57" s="88"/>
       <c r="G57" s="88"/>
     </row>
-    <row r="58" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="85" t="s">
         <v>28</v>
       </c>
@@ -3302,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="85" t="s">
         <v>29</v>
       </c>
@@ -3323,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="85" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="85" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="85" t="s">
         <v>32</v>
       </c>
@@ -3386,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="85" t="s">
         <v>33</v>
       </c>
@@ -3407,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="85" t="s">
         <v>34</v>
       </c>
@@ -3428,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="85" t="s">
         <v>35</v>
       </c>
@@ -3449,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="85" t="s">
         <v>36</v>
       </c>
@@ -3470,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="85" t="s">
         <v>37</v>
       </c>
@@ -3491,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="85" t="s">
         <v>38</v>
       </c>
@@ -3515,7 +3505,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="85" t="s">
         <v>38</v>
       </c>
@@ -3539,7 +3529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="85" t="s">
         <v>39</v>
       </c>
@@ -3560,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="85" t="s">
         <v>40</v>
       </c>
@@ -3581,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="85" t="s">
         <v>41</v>
       </c>
@@ -3602,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="85" t="s">
         <v>55</v>
       </c>
@@ -3623,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="101"/>
       <c r="B74" s="102"/>
       <c r="C74" s="103"/>
@@ -3635,7 +3625,7 @@
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
     </row>
-    <row r="75" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="42"/>
       <c r="B75" s="43"/>
       <c r="C75" s="44"/>
@@ -3649,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="42"/>
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
@@ -3663,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="42"/>
       <c r="B77" s="43"/>
       <c r="C77" s="44"/>
@@ -3677,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="42"/>
       <c r="B78" s="96" t="s">
         <v>179</v>
@@ -3688,7 +3678,7 @@
       <c r="F78" s="47"/>
       <c r="G78" s="48"/>
     </row>
-    <row r="79" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="42"/>
       <c r="B79" s="62" t="s">
         <v>71</v>
@@ -3701,7 +3691,7 @@
       <c r="F79" s="47"/>
       <c r="G79" s="48"/>
     </row>
-    <row r="80" spans="1:9" ht="20.149999999999999" customHeight="1">
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="42"/>
       <c r="B80" s="64">
         <v>2</v>
@@ -3714,7 +3704,7 @@
       <c r="F80" s="47"/>
       <c r="G80" s="48"/>
     </row>
-    <row r="81" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="42"/>
       <c r="B81" s="64">
         <v>1</v>
@@ -3727,7 +3717,7 @@
       <c r="F81" s="47"/>
       <c r="G81" s="48"/>
     </row>
-    <row r="82" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="42"/>
       <c r="B82" s="64">
         <v>1</v>
@@ -3740,7 +3730,7 @@
       <c r="F82" s="47"/>
       <c r="G82" s="48"/>
     </row>
-    <row r="83" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="42"/>
       <c r="B83" s="62">
         <v>4</v>
@@ -3751,7 +3741,7 @@
       <c r="F83" s="47"/>
       <c r="G83" s="48"/>
     </row>
-    <row r="84" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="42"/>
       <c r="B84" s="64"/>
       <c r="C84" s="67" t="s">
@@ -3762,7 +3752,7 @@
       <c r="F84" s="47"/>
       <c r="G84" s="48"/>
     </row>
-    <row r="85" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="42"/>
       <c r="B85" s="64">
         <v>1</v>
@@ -3775,7 +3765,7 @@
       <c r="F85" s="47"/>
       <c r="G85" s="48"/>
     </row>
-    <row r="86" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="42"/>
       <c r="B86" s="64">
         <v>1</v>
@@ -3788,7 +3778,7 @@
       <c r="F86" s="47"/>
       <c r="G86" s="48"/>
     </row>
-    <row r="87" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="42"/>
       <c r="B87" s="64">
         <v>1</v>
@@ -3801,7 +3791,7 @@
       <c r="F87" s="47"/>
       <c r="G87" s="48"/>
     </row>
-    <row r="88" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="42"/>
       <c r="B88" s="64">
         <v>1</v>
@@ -3814,7 +3804,7 @@
       <c r="F88" s="47"/>
       <c r="G88" s="48"/>
     </row>
-    <row r="89" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="42"/>
       <c r="B89" s="64">
         <v>1</v>
@@ -3827,7 +3817,7 @@
       <c r="F89" s="47"/>
       <c r="G89" s="48"/>
     </row>
-    <row r="90" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="42"/>
       <c r="B90" s="64">
         <v>4</v>
@@ -3840,7 +3830,7 @@
       <c r="F90" s="47"/>
       <c r="G90" s="48"/>
     </row>
-    <row r="91" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="42"/>
       <c r="B91" s="62">
         <v>9</v>
@@ -3851,7 +3841,7 @@
       <c r="F91" s="47"/>
       <c r="G91" s="48"/>
     </row>
-    <row r="92" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="42"/>
       <c r="B92" s="64"/>
       <c r="C92" s="67" t="s">
@@ -3862,7 +3852,7 @@
       <c r="F92" s="47"/>
       <c r="G92" s="48"/>
     </row>
-    <row r="93" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="42"/>
       <c r="B93" s="64">
         <v>1</v>
@@ -3875,7 +3865,7 @@
       <c r="F93" s="47"/>
       <c r="G93" s="48"/>
     </row>
-    <row r="94" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="42"/>
       <c r="B94" s="64">
         <v>1</v>
@@ -3888,7 +3878,7 @@
       <c r="F94" s="47"/>
       <c r="G94" s="48"/>
     </row>
-    <row r="95" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="42"/>
       <c r="B95" s="64">
         <v>1</v>
@@ -3901,7 +3891,7 @@
       <c r="F95" s="47"/>
       <c r="G95" s="48"/>
     </row>
-    <row r="96" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="42"/>
       <c r="B96" s="64">
         <v>1</v>
@@ -3914,7 +3904,7 @@
       <c r="F96" s="47"/>
       <c r="G96" s="48"/>
     </row>
-    <row r="97" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="42"/>
       <c r="B97" s="64">
         <v>1</v>
@@ -3927,7 +3917,7 @@
       <c r="F97" s="47"/>
       <c r="G97" s="48"/>
     </row>
-    <row r="98" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="42"/>
       <c r="B98" s="64">
         <v>4</v>
@@ -3940,7 +3930,7 @@
       <c r="F98" s="47"/>
       <c r="G98" s="48"/>
     </row>
-    <row r="99" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="42"/>
       <c r="B99" s="62">
         <v>9</v>
@@ -3951,7 +3941,7 @@
       <c r="F99" s="47"/>
       <c r="G99" s="48"/>
     </row>
-    <row r="100" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="42"/>
       <c r="B100" s="64"/>
       <c r="C100" s="67" t="s">
@@ -3962,7 +3952,7 @@
       <c r="F100" s="47"/>
       <c r="G100" s="48"/>
     </row>
-    <row r="101" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="42"/>
       <c r="B101" s="64">
         <v>1</v>
@@ -3975,7 +3965,7 @@
       <c r="F101" s="47"/>
       <c r="G101" s="48"/>
     </row>
-    <row r="102" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="42"/>
       <c r="B102" s="64">
         <v>1</v>
@@ -3988,7 +3978,7 @@
       <c r="F102" s="47"/>
       <c r="G102" s="48"/>
     </row>
-    <row r="103" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="42"/>
       <c r="B103" s="64">
         <v>1</v>
@@ -4001,7 +3991,7 @@
       <c r="F103" s="47"/>
       <c r="G103" s="48"/>
     </row>
-    <row r="104" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="42"/>
       <c r="B104" s="64">
         <v>1</v>
@@ -4014,7 +4004,7 @@
       <c r="F104" s="47"/>
       <c r="G104" s="48"/>
     </row>
-    <row r="105" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="42"/>
       <c r="B105" s="64">
         <v>1</v>
@@ -4027,7 +4017,7 @@
       <c r="F105" s="47"/>
       <c r="G105" s="48"/>
     </row>
-    <row r="106" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="42"/>
       <c r="B106" s="68">
         <v>4</v>
@@ -4040,7 +4030,7 @@
       <c r="F106" s="47"/>
       <c r="G106" s="48"/>
     </row>
-    <row r="107" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="42"/>
       <c r="B107" s="69">
         <v>9</v>
@@ -4051,7 +4041,7 @@
       <c r="F107" s="47"/>
       <c r="G107" s="48"/>
     </row>
-    <row r="108" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="49"/>
       <c r="B108" s="70"/>
       <c r="C108" s="61"/>
@@ -4060,7 +4050,7 @@
       <c r="F108" s="49"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="49"/>
       <c r="B109" s="86"/>
       <c r="C109" s="87"/>
@@ -4069,7 +4059,7 @@
       <c r="F109" s="49"/>
       <c r="G109" s="49"/>
     </row>
-    <row r="110" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="49"/>
       <c r="B110" s="86"/>
       <c r="C110" s="87"/>
@@ -4078,7 +4068,7 @@
       <c r="F110" s="49"/>
       <c r="G110" s="49"/>
     </row>
-    <row r="111" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="49"/>
       <c r="B111" s="86"/>
       <c r="C111" s="87"/>
@@ -4087,7 +4077,7 @@
       <c r="F111" s="49"/>
       <c r="G111" s="49"/>
     </row>
-    <row r="112" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="49"/>
       <c r="B112" s="86"/>
       <c r="C112" s="87"/>
@@ -4096,7 +4086,7 @@
       <c r="F112" s="49"/>
       <c r="G112" s="49"/>
     </row>
-    <row r="113" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="49"/>
       <c r="B113" s="86"/>
       <c r="C113" s="87"/>
@@ -4105,7 +4095,7 @@
       <c r="F113" s="49"/>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="49"/>
       <c r="B114" s="86"/>
       <c r="C114" s="87"/>
@@ -4114,7 +4104,7 @@
       <c r="F114" s="49"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="49"/>
       <c r="B115" s="86"/>
       <c r="C115" s="87"/>
@@ -4123,7 +4113,7 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
     </row>
-    <row r="116" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="49"/>
       <c r="B116" s="86"/>
       <c r="C116" s="87"/>
@@ -4132,7 +4122,7 @@
       <c r="F116" s="49"/>
       <c r="G116" s="49"/>
     </row>
-    <row r="117" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="49"/>
       <c r="B117" s="70"/>
       <c r="C117" s="61"/>
@@ -4141,7 +4131,7 @@
       <c r="F117" s="49"/>
       <c r="G117" s="49"/>
     </row>
-    <row r="118" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="49"/>
       <c r="B118" s="81" t="s">
         <v>180</v>
@@ -4154,7 +4144,7 @@
       <c r="F118" s="49"/>
       <c r="G118" s="49"/>
     </row>
-    <row r="119" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="49"/>
       <c r="B119" s="77"/>
       <c r="C119" s="78" t="s">
@@ -4165,7 +4155,7 @@
       <c r="F119" s="49"/>
       <c r="G119" s="49"/>
     </row>
-    <row r="120" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="49"/>
       <c r="B120" s="77"/>
       <c r="C120" s="78" t="s">
@@ -4176,7 +4166,7 @@
       <c r="F120" s="49"/>
       <c r="G120" s="49"/>
     </row>
-    <row r="121" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="49"/>
       <c r="B121" s="77"/>
       <c r="C121" s="78" t="s">
@@ -4187,7 +4177,7 @@
       <c r="F121" s="49"/>
       <c r="G121" s="49"/>
     </row>
-    <row r="122" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="49"/>
       <c r="B122" s="77"/>
       <c r="C122" s="78" t="s">
@@ -4198,7 +4188,7 @@
       <c r="F122" s="49"/>
       <c r="G122" s="49"/>
     </row>
-    <row r="123" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="49"/>
       <c r="B123" s="77"/>
       <c r="C123" s="78"/>
@@ -4207,7 +4197,7 @@
       <c r="F123" s="49"/>
       <c r="G123" s="49"/>
     </row>
-    <row r="124" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B124" s="79" t="s">
         <v>151</v>
       </c>
@@ -4219,7 +4209,7 @@
       <c r="F124" s="49"/>
       <c r="G124" s="49"/>
     </row>
-    <row r="125" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="79"/>
       <c r="C125" s="80" t="s">
         <v>185</v>
@@ -4229,7 +4219,7 @@
       <c r="F125" s="49"/>
       <c r="G125" s="49"/>
     </row>
-    <row r="126" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="79"/>
       <c r="C126" s="80" t="s">
         <v>186</v>
@@ -4239,7 +4229,7 @@
       <c r="F126" s="49"/>
       <c r="G126" s="49"/>
     </row>
-    <row r="127" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="75"/>
       <c r="C127" s="76"/>
       <c r="D127" s="49"/>
@@ -4247,7 +4237,7 @@
       <c r="F127" s="49"/>
       <c r="G127" s="49"/>
     </row>
-    <row r="128" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="128" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="75"/>
       <c r="C128" s="76"/>
       <c r="D128" s="49"/>
@@ -4255,7 +4245,7 @@
       <c r="F128" s="49"/>
       <c r="G128" s="49"/>
     </row>
-    <row r="129" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="129" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="61"/>
       <c r="C129" s="70"/>
       <c r="D129" s="49"/>
@@ -4263,7 +4253,7 @@
       <c r="F129" s="49"/>
       <c r="G129" s="49"/>
     </row>
-    <row r="130" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="130" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B130"/>
       <c r="C130" s="70"/>
       <c r="D130" s="51"/>
@@ -4271,7 +4261,7 @@
       <c r="F130" s="52"/>
       <c r="G130" s="52"/>
     </row>
-    <row r="131" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="131" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B131"/>
       <c r="C131" s="70"/>
       <c r="D131" s="49"/>
@@ -4279,7 +4269,7 @@
       <c r="F131" s="52"/>
       <c r="G131" s="53"/>
     </row>
-    <row r="132" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="132" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B132" s="61" t="s">
         <v>172</v>
       </c>
@@ -4289,7 +4279,7 @@
       <c r="F132" s="50"/>
       <c r="G132" s="53"/>
     </row>
-    <row r="133" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="133" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="61"/>
       <c r="C133"/>
       <c r="D133" s="54"/>
@@ -4297,7 +4287,7 @@
       <c r="F133" s="50"/>
       <c r="G133" s="53"/>
     </row>
-    <row r="134" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="134" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="61"/>
       <c r="C134"/>
       <c r="D134" s="54"/>
@@ -4305,7 +4295,7 @@
       <c r="F134" s="50"/>
       <c r="G134" s="53"/>
     </row>
-    <row r="135" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="135" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B135" s="61" t="s">
         <v>171</v>
       </c>
@@ -4315,7 +4305,7 @@
       <c r="F135" s="50"/>
       <c r="G135" s="53"/>
     </row>
-    <row r="136" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="136" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="61"/>
       <c r="C136"/>
       <c r="D136" s="55"/>
@@ -4323,7 +4313,7 @@
       <c r="F136" s="53"/>
       <c r="G136" s="53"/>
     </row>
-    <row r="137" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="137" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="61"/>
       <c r="C137"/>
       <c r="D137" s="55"/>
@@ -4331,7 +4321,7 @@
       <c r="F137" s="53"/>
       <c r="G137" s="53"/>
     </row>
-    <row r="138" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="138" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="61"/>
       <c r="C138"/>
       <c r="D138" s="55"/>
@@ -4339,7 +4329,7 @@
       <c r="F138" s="53"/>
       <c r="G138" s="53"/>
     </row>
-    <row r="139" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="139" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="61"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -4347,81 +4337,81 @@
       <c r="F139"/>
       <c r="G139" s="53"/>
     </row>
-    <row r="140" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="140" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B140" s="61" t="s">
         <v>173</v>
       </c>
       <c r="C140" s="71"/>
       <c r="E140" s="49"/>
     </row>
-    <row r="141" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="141" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="61"/>
       <c r="C141"/>
       <c r="E141" s="49"/>
     </row>
-    <row r="142" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="142" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="61"/>
       <c r="C142"/>
       <c r="E142" s="49"/>
     </row>
-    <row r="143" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="143" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B143" s="61" t="s">
         <v>174</v>
       </c>
       <c r="C143" s="71"/>
       <c r="E143" s="49"/>
     </row>
-    <row r="144" spans="2:7" ht="20.149999999999999" customHeight="1">
+    <row r="144" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="61"/>
       <c r="C144"/>
       <c r="E144" s="49"/>
     </row>
-    <row r="145" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="145" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="61"/>
       <c r="C145"/>
       <c r="E145" s="49"/>
     </row>
-    <row r="146" spans="2:5" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="146" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B146" s="61" t="s">
         <v>187</v>
       </c>
       <c r="C146" s="71"/>
       <c r="E146" s="49"/>
     </row>
-    <row r="147" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="147" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E147" s="49"/>
     </row>
-    <row r="148" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="148" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E148" s="49"/>
     </row>
-    <row r="149" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="149" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E149" s="49"/>
     </row>
-    <row r="150" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="150" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E150" s="49"/>
     </row>
-    <row r="151" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="151" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E151" s="49"/>
     </row>
-    <row r="152" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="152" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E152" s="49"/>
     </row>
-    <row r="153" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="153" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E153" s="49"/>
     </row>
-    <row r="154" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="154" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E154" s="49"/>
     </row>
-    <row r="155" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="155" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E155" s="49"/>
     </row>
-    <row r="156" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="156" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E156" s="49"/>
     </row>
-    <row r="157" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="157" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E157" s="49"/>
     </row>
-    <row r="158" spans="2:5" ht="20.149999999999999" customHeight="1">
+    <row r="158" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="E158" s="49"/>
     </row>
   </sheetData>
@@ -4435,7 +4425,7 @@
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="EQUIVOCACION" error="Debe seleccionar un registro de la lista" promptTitle="Clientes Ortomax" prompt="Lista de Clientes de Ortomax" sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="EQUIVOCACION" error="Debe seleccionar un registro de la lista" promptTitle="Clientes Ortomax" prompt="Lista de Clientes de Ortomax" sqref="C9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
